--- a/biology/Médecine/Michel_Hanus/Michel_Hanus.xlsx
+++ b/biology/Médecine/Michel_Hanus/Michel_Hanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Hanus, né à Belval-sous-Châtillon le 6 août 1936 et mort à Paris 15e le 2 avril 2010[1], est psychiatre, psychologue et psychanalyste français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Hanus, né à Belval-sous-Châtillon le 6 août 1936 et mort à Paris 15e le 2 avril 2010, est psychiatre, psychologue et psychanalyste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Parcours de formation et professionnel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est docteur en médecine, ancien interne des hôpitaux psychiatriques et des hôpitaux de Paris[3]. Il soutient en 1993 une thèse doctorale de psychologie, intitulée Contribution à l'étude des phénomènes du deuil[4]. Il exerce durant une vingtaine d'années comme psychiatre libéral et crée en mars 1995 l'association Vivre son deuil (devenue Vivre son deuil Île-de-France en 2002 puis Empreintes en 2014), dirigé la Société de thanatologie et fondé de la Fédération européenne « Vivre son deuil » en 2002. Il soutient la fondation d'un comité national d’éthique du funéraire (2001). Il enseigne à Paris, à Genève et à Montréal. Il est l'auteur de nombreux ouvrages sur la mort et le deuil du point de vue génétique, psychanalytique et psychothérapeutique. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est docteur en médecine, ancien interne des hôpitaux psychiatriques et des hôpitaux de Paris. Il soutient en 1993 une thèse doctorale de psychologie, intitulée Contribution à l'étude des phénomènes du deuil. Il exerce durant une vingtaine d'années comme psychiatre libéral et crée en mars 1995 l'association Vivre son deuil (devenue Vivre son deuil Île-de-France en 2002 puis Empreintes en 2014), dirigé la Société de thanatologie et fondé de la Fédération européenne « Vivre son deuil » en 2002. Il soutient la fondation d'un comité national d’éthique du funéraire (2001). Il enseigne à Paris, à Genève et à Montréal. Il est l'auteur de nombreux ouvrages sur la mort et le deuil du point de vue génétique, psychanalytique et psychothérapeutique. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(coll.) Le grand livre de la mort à l'usage des vivants, Albin Michel, coll. « Spiritualité »,  (ISBN 2226178465)
 avec Marie-Frédérique Bacqué, Le Deuil, PUF, coll. « Que sais-je ? », 2003,  (ISBN 2-13-051933-4)
